--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v4.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC3E36E-0532-48A0-B207-50FB6F49976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82B426-E511-45FF-A6C4-10FD40697D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,35 +1325,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1382,58 +1393,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,11 +1417,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,37 +1787,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +1828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1908,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1980,7 +1973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -2052,7 +2045,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2088,7 +2081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2117,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2160,7 +2153,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>136</v>
       </c>
@@ -2198,17 +2191,17 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2222,7 +2215,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
@@ -2260,7 +2253,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>53</v>
       </c>
@@ -2299,7 +2292,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>60</v>
       </c>
@@ -2337,7 +2330,7 @@
         <v>8190</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>61</v>
       </c>
@@ -2371,7 +2364,7 @@
         <v>16382</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>65</v>
       </c>
@@ -2406,7 +2399,7 @@
         <v>32766</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>66</v>
       </c>
@@ -2440,7 +2433,7 @@
         <v>65534</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>69</v>
       </c>
@@ -2461,13 +2454,13 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="63" t="s">
+      <c r="Q19" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="64"/>
-      <c r="S19" s="65"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R19" s="69"/>
+      <c r="S19" s="70"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
@@ -2489,13 +2482,13 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="66" t="s">
+      <c r="Q20" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="67"/>
-      <c r="S20" s="68"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R20" s="72"/>
+      <c r="S20" s="73"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>76</v>
       </c>
@@ -2516,13 +2509,13 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="66" t="s">
+      <c r="Q21" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="67"/>
-      <c r="S21" s="68"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R21" s="72"/>
+      <c r="S21" s="73"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>79</v>
       </c>
@@ -2547,13 +2540,13 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="69" t="s">
+      <c r="Q22" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="70"/>
-      <c r="S22" s="71"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R22" s="75"/>
+      <c r="S22" s="76"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>83</v>
       </c>
@@ -2579,7 +2572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
@@ -2601,7 +2594,7 @@
       <c r="G24" s="18"/>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>86</v>
       </c>
@@ -2623,7 +2616,7 @@
       <c r="G25" s="18"/>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
         <v>84</v>
       </c>
@@ -2645,19 +2638,19 @@
       <c r="G26" s="47"/>
       <c r="H26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>91</v>
       </c>
@@ -2681,7 +2674,7 @@
       </c>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>94</v>
       </c>
@@ -2705,7 +2698,7 @@
       </c>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>96</v>
       </c>
@@ -2729,7 +2722,7 @@
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>98</v>
       </c>
@@ -2753,7 +2746,7 @@
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
@@ -2777,7 +2770,7 @@
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -2801,7 +2794,7 @@
       </c>
       <c r="H33" s="30"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>105</v>
       </c>
@@ -2825,7 +2818,7 @@
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
@@ -2849,7 +2842,7 @@
       </c>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>108</v>
       </c>
@@ -2873,7 +2866,7 @@
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>109</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>110</v>
       </c>
@@ -2920,7 +2913,7 @@
       </c>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>111</v>
       </c>
@@ -2943,7 +2936,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>112</v>
       </c>
@@ -2966,7 +2959,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>113</v>
       </c>
@@ -2989,7 +2982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>114</v>
       </c>
@@ -3012,7 +3005,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>115</v>
       </c>
@@ -3035,7 +3028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>116</v>
       </c>
@@ -3060,7 +3053,7 @@
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>117</v>
       </c>
@@ -3084,7 +3077,7 @@
       </c>
       <c r="I45" s="33"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3108,7 +3101,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>119</v>
       </c>
@@ -3132,7 +3125,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>120</v>
       </c>
@@ -3156,7 +3149,7 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>177</v>
       </c>
@@ -3181,7 +3174,7 @@
       <c r="H49" s="37"/>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>180</v>
       </c>
@@ -3206,20 +3199,20 @@
       <c r="H50" s="33"/>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="62" t="s">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="61"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="93"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="29" t="s">
         <v>122</v>
       </c>
@@ -3240,7 +3233,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>127</v>
       </c>
@@ -3260,17 +3253,17 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B54" s="8">
         <v>501</v>
       </c>
-      <c r="C54" s="80">
+      <c r="C54" s="23">
         <v>512</v>
       </c>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="23" t="s">
         <v>213</v>
       </c>
       <c r="E54" s="20" t="s">
@@ -3280,17 +3273,17 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B55" s="8">
         <v>504</v>
       </c>
-      <c r="C55" s="80">
+      <c r="C55" s="23">
         <v>512</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="23" t="s">
         <v>212</v>
       </c>
       <c r="E55" s="20" t="s">
@@ -3300,17 +3293,17 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="8">
         <v>502</v>
       </c>
-      <c r="C56" s="80">
+      <c r="C56" s="23">
         <v>512</v>
       </c>
-      <c r="D56" s="80" t="s">
+      <c r="D56" s="23" t="s">
         <v>211</v>
       </c>
       <c r="E56" s="20" t="s">
@@ -3320,17 +3313,17 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B57" s="8">
         <v>505</v>
       </c>
-      <c r="C57" s="80">
+      <c r="C57" s="23">
         <v>512</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="23" t="s">
         <v>210</v>
       </c>
       <c r="E57" s="20" t="s">
@@ -3340,17 +3333,17 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B58" s="8">
         <v>503</v>
       </c>
-      <c r="C58" s="80">
+      <c r="C58" s="23">
         <v>512</v>
       </c>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="23" t="s">
         <v>209</v>
       </c>
       <c r="E58" s="20" t="s">
@@ -3358,17 +3351,17 @@
       </c>
       <c r="F58" s="51"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B59" s="8">
         <v>506</v>
       </c>
-      <c r="C59" s="80">
+      <c r="C59" s="23">
         <v>512</v>
       </c>
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="23" t="s">
         <v>208</v>
       </c>
       <c r="E59" s="20" t="s">
@@ -3376,17 +3369,17 @@
       </c>
       <c r="F59" s="51"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B60" s="8">
         <v>507</v>
       </c>
-      <c r="C60" s="80">
+      <c r="C60" s="23">
         <v>512</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="23" t="s">
         <v>214</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -3394,17 +3387,17 @@
       </c>
       <c r="F60" s="51"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B61" s="8">
         <v>508</v>
       </c>
-      <c r="C61" s="80">
+      <c r="C61" s="23">
         <v>512</v>
       </c>
-      <c r="D61" s="80" t="s">
+      <c r="D61" s="23" t="s">
         <v>215</v>
       </c>
       <c r="E61" s="20" t="s">
@@ -3412,68 +3405,66 @@
       </c>
       <c r="F61" s="51"/>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
+      <c r="B62" s="65"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="93" t="s">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
-      <c r="G63" s="95"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="89" t="s">
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="84"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="89" t="s">
+      <c r="B64" s="78"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="91"/>
-      <c r="F64" s="92"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="74" t="s">
+      <c r="E64" s="80"/>
+      <c r="F64" s="81"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="84" t="s">
+      <c r="D65" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="E65" s="86" t="s">
+      <c r="E65" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="72" t="s">
+      <c r="F65" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G65" s="73" t="s">
+      <c r="G65" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="96" t="s">
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="60" t="s">
         <v>186</v>
       </c>
       <c r="D66" s="51">
@@ -3485,12 +3476,12 @@
       <c r="F66" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="G66" s="87">
+      <c r="G66" s="64">
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="96" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="66" t="s">
         <v>183</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3509,14 +3500,14 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="96" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="66" t="s">
         <v>184</v>
       </c>
       <c r="B68" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="85" t="s">
+      <c r="C68" s="41" t="s">
         <v>191</v>
       </c>
       <c r="D68" s="51">
@@ -3529,17 +3520,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="97" t="s">
+    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="67" t="s">
         <v>185</v>
       </c>
       <c r="B69" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="83">
+      <c r="D69" s="61">
         <v>4</v>
       </c>
       <c r="E69" s="42" t="s">
@@ -3554,6 +3545,10 @@
     <sortCondition ref="F3:F11"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
@@ -3561,10 +3556,6 @@
     <mergeCell ref="A64:C64"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A51:F51"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v4.xlsx
+++ b/Tercero/DIR/GIC-DIR-P1-e6/GIC-DIR-Practica2-e2-VLANs_v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Tercero\DIR\GIC-DIR-P1-e6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82B426-E511-45FF-A6C4-10FD40697D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E0150E-B05D-4CFB-8884-E5004200C3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="231">
   <si>
     <t>DEPARTAMENTOS</t>
   </si>
@@ -705,6 +705,27 @@
   </si>
   <si>
     <t>10.3.14.1/23</t>
+  </si>
+  <si>
+    <t>DC-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.4/30</t>
+  </si>
+  <si>
+    <t>OFFICE-WAN</t>
+  </si>
+  <si>
+    <t>192.168.0.8/30</t>
+  </si>
+  <si>
+    <t>192.168.0.5/30</t>
+  </si>
+  <si>
+    <t>192.168.0.9/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1340,7 +1361,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,13 +1379,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1393,21 +1457,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1417,34 +1466,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1785,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,16 +1836,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
       <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2192,16 +2220,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="76"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -2454,11 +2482,11 @@
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="20"/>
-      <c r="Q19" s="68" t="s">
+      <c r="Q19" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="69"/>
-      <c r="S19" s="70"/>
+      <c r="R19" s="82"/>
+      <c r="S19" s="83"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
@@ -2482,11 +2510,11 @@
       <c r="G20" s="23"/>
       <c r="H20" s="20"/>
       <c r="P20" s="16"/>
-      <c r="Q20" s="71" t="s">
+      <c r="Q20" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="R20" s="72"/>
-      <c r="S20" s="73"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="86"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
@@ -2509,11 +2537,11 @@
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="20"/>
-      <c r="Q21" s="71" t="s">
+      <c r="Q21" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="72"/>
-      <c r="S21" s="73"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="86"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
@@ -2540,11 +2568,11 @@
       <c r="H22" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="74" t="s">
+      <c r="Q22" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
@@ -2639,16 +2667,16 @@
       <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -3200,14 +3228,14 @@
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="79"/>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
@@ -3405,138 +3433,170 @@
       </c>
       <c r="F61" s="51"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9"/>
-      <c r="B62" s="65"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="9"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="8">
+        <v>509</v>
+      </c>
+      <c r="C62" s="23">
+        <v>4</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="51"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="93">
+        <v>510</v>
+      </c>
+      <c r="C63" s="23">
+        <v>4</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="95" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="84"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="77" t="s">
+      <c r="B64" s="91"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="91"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="92"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="78"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="77" t="s">
+      <c r="B65" s="67"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="80"/>
-      <c r="F64" s="81"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="55" t="s">
+      <c r="E65" s="69"/>
+      <c r="F65" s="70"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B66" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="57" t="s">
+      <c r="C66" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="62" t="s">
+      <c r="D66" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="E65" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="F66" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G66" s="54" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="66" t="s">
+    <row r="67" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B67" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C67" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="D66" s="51">
+      <c r="D67" s="51">
         <v>1</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F67" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="G66" s="64">
+      <c r="G67" s="63">
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="66" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B68" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C68" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="51">
+      <c r="D68" s="51">
         <v>2</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F68" s="20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B69" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C69" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="51">
+      <c r="D69" s="51">
         <v>3</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F69" s="20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="67" t="s">
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B70" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="57" t="s">
+      <c r="C70" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="61">
+      <c r="D70" s="60">
         <v>4</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E70" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="F69" s="44" t="s">
+      <c r="F70" s="44" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3544,7 +3604,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H11">
     <sortCondition ref="F3:F11"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="A64:G64"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A27:H27"/>
@@ -3553,9 +3614,6 @@
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A63:G63"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
